--- a/ies_dataset_extgrid.xlsx
+++ b/ies_dataset_extgrid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\25秋科研资料\IES_critical_modelling\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工位宿舍共享文件夹\IES_critical_modelling\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD0CEA8-F4CD-4BC8-A2F1-3C7D4EEED589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D5CA8B-E85F-4A49-8209-8FEB4C56E2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="4284" windowWidth="23256" windowHeight="12456" tabRatio="914" firstSheet="20" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="power_meta" sheetId="1" r:id="rId1"/>
@@ -40,19 +40,30 @@
     <sheet name="gen_PMAX" sheetId="25" r:id="rId25"/>
     <sheet name="eh_flow_electricity" sheetId="26" r:id="rId26"/>
     <sheet name="eh_flow_gas" sheetId="27" r:id="rId27"/>
-    <sheet name="eh_PCI_gas" sheetId="28" r:id="rId28"/>
-    <sheet name="heat_Q_demand" sheetId="29" r:id="rId29"/>
-    <sheet name="ambient_T" sheetId="30" r:id="rId30"/>
-    <sheet name="storage_dispatch_ch" sheetId="31" r:id="rId31"/>
-    <sheet name="storage_dispatch_dc" sheetId="32" r:id="rId32"/>
-    <sheet name="elec_price_buy" sheetId="33" r:id="rId33"/>
-    <sheet name="elec_price_sell" sheetId="34" r:id="rId34"/>
-    <sheet name="external_CI" sheetId="35" r:id="rId35"/>
-    <sheet name="grid_trade_buy" sheetId="36" r:id="rId36"/>
-    <sheet name="grid_trade_sell" sheetId="37" r:id="rId37"/>
+    <sheet name="gas_load_demand" sheetId="38" r:id="rId28"/>
+    <sheet name="eh_PCI_gas" sheetId="28" r:id="rId29"/>
+    <sheet name="heat_Q_demand" sheetId="29" r:id="rId30"/>
+    <sheet name="ambient_T" sheetId="30" r:id="rId31"/>
+    <sheet name="storage_dispatch_ch" sheetId="31" r:id="rId32"/>
+    <sheet name="storage_dispatch_dc" sheetId="32" r:id="rId33"/>
+    <sheet name="elec_price_buy" sheetId="33" r:id="rId34"/>
+    <sheet name="elec_price_sell" sheetId="34" r:id="rId35"/>
+    <sheet name="external_CI" sheetId="35" r:id="rId36"/>
+    <sheet name="grid_trade_buy" sheetId="36" r:id="rId37"/>
+    <sheet name="grid_trade_sell" sheetId="37" r:id="rId38"/>
+    <sheet name="gas_source_output_fixed" sheetId="39" r:id="rId39"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -61,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="184">
   <si>
     <t>baseMVA</t>
   </si>
@@ -243,6 +254,9 @@
     <t>output</t>
   </si>
   <si>
+    <t>is_slack</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -601,13 +615,24 @@
   </si>
   <si>
     <t>ext_grid</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat_priority</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,16 +654,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -661,15 +698,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -974,18 +1030,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -998,13 +1054,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1017,8 +1075,11 @@
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1026,13 +1087,17 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>267.29000000000002</v>
+        <f>0.0122*267.29</f>
+        <v>3.2609380000000003</v>
       </c>
       <c r="D2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1040,10 +1105,14 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>205</v>
+        <f>0.012*205</f>
+        <v>2.46</v>
       </c>
       <c r="D3">
         <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1056,11 +1125,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1068,10 +1139,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1079,10 +1150,11 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <f>0.012*150</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1090,10 +1162,11 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <f>0.012*150</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1101,10 +1174,11 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>99.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <f>0.012*99.04</f>
+        <v>1.1884800000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1112,7 +1186,8 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>68.34</v>
+        <f>0.012*68.34</f>
+        <v>0.82008000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1127,9 +1202,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1143,15 +1218,15 @@
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1163,12 +1238,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1180,12 +1255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1197,12 +1272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1214,12 +1289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1231,12 +1306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1248,12 +1323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1265,12 +1340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1282,12 +1357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1299,12 +1374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1316,12 +1391,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1333,12 +1408,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1362,9 +1437,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1375,40 +1450,40 @@
         <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1452,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1496,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1540,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1584,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1628,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1672,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1716,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1760,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1804,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1848,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1892,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1936,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1992,17 +2067,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2022,26 +2097,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2058,7 +2133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2087,9 +2162,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2103,7 +2178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2123,9 +2198,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,10 +2208,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2147,7 +2222,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2158,7 +2233,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2177,31 +2252,40 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
         <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2211,27 +2295,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2244,11 +2328,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2289,7 +2375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2297,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2330,7 +2416,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2338,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2371,7 +2457,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2379,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>280</v>
+        <v>2.8</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2412,7 +2498,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2420,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2453,7 +2539,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2461,10 +2547,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>280</v>
+        <v>2.8</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2494,7 +2580,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2502,10 +2588,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2535,7 +2621,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2579,6 +2665,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2588,50 +2675,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2646,1583 +2733,1583 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>110</v>
       </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>109</v>
-      </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
       </c>
       <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>121</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>120</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
       <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>121</v>
-      </c>
-      <c r="D32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>120</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>121</v>
-      </c>
-      <c r="D33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>124</v>
-      </c>
-      <c r="D41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>123</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
       <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>128</v>
-      </c>
-      <c r="D50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>127</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>129</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
         <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
         <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
         <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
         <v>47</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" t="s">
         <v>135</v>
       </c>
-      <c r="B73" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="D81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s">
         <v>135</v>
       </c>
-      <c r="B74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" t="s">
-        <v>66</v>
-      </c>
-      <c r="D75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" t="s">
-        <v>100</v>
-      </c>
-      <c r="E77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>135</v>
-      </c>
-      <c r="B80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D82" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>136</v>
       </c>
-      <c r="D80" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>135</v>
-      </c>
-      <c r="B81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" t="s">
-        <v>134</v>
-      </c>
-      <c r="D81" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" t="s">
-        <v>134</v>
-      </c>
-      <c r="D82" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>135</v>
-      </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B84" t="s">
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s">
         <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B92" t="s">
         <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E92" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B93" t="s">
         <v>59</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B94" t="s">
         <v>41</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B96" t="s">
         <v>58</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B100" t="s">
         <v>53</v>
       </c>
       <c r="D100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E101" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B103" t="s">
         <v>53</v>
       </c>
       <c r="D103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E103" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" t="s">
+        <v>104</v>
+      </c>
+      <c r="D104" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" t="s">
         <v>145</v>
       </c>
-      <c r="B104" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" t="s">
-        <v>103</v>
-      </c>
-      <c r="D104" t="s">
-        <v>100</v>
-      </c>
-      <c r="E104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" t="s">
-        <v>83</v>
-      </c>
-      <c r="C105" t="s">
-        <v>144</v>
-      </c>
       <c r="D105" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
         <v>46</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D106" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4235,88 +4322,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4393,7 +4482,7 @@
         <v>2.5596199999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4470,7 +4559,7 @@
         <v>3.65008</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4547,7 +4636,7 @@
         <v>3.5681600000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4624,84 +4713,84 @@
         <v>1.3146</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>3.5702600000000002</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>3.87527</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>3.3322099999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>3.24214</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>3.3235800000000002</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>2.9578700000000002</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>2.79928</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>2.56149</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>2.4201700000000002</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>2.3612799999999998</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>2.0819299999999998</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>2.0526499999999999</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>1.75908</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>1.9837800000000001</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>1.98516</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>2.07159</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>2.2755000000000001</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>2.53945</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>2.9282300000000001</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="3">
         <v>2.8172899999999998</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="3">
         <v>3.2249300000000001</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="3">
         <v>3.3118099999999999</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="3">
         <v>3.4696699999999998</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="3">
         <v>3.79244</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4790,86 +4879,86 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4946,7 +5035,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5023,7 +5112,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5100,7 +5189,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5177,7 +5266,7 @@
         <v>0.61516999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5254,7 +5343,7 @@
         <v>1.45034</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5343,86 +5432,86 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5499,7 +5588,7 @@
         <v>0.12194000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5588,17 +5677,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5606,7 +5695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5614,7 +5703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5632,162 +5721,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2">
-        <v>6.202</v>
+        <f>power_PD!B6</f>
+        <v>3.5702600000000002</v>
       </c>
       <c r="C2">
-        <v>6.3259999999999996</v>
+        <f>power_PD!C6</f>
+        <v>3.87527</v>
       </c>
       <c r="D2">
-        <v>6.3869999999999996</v>
+        <f>power_PD!D6</f>
+        <v>3.3322099999999999</v>
       </c>
       <c r="E2">
-        <v>5.5720000000000001</v>
+        <f>power_PD!E6</f>
+        <v>3.24214</v>
       </c>
       <c r="F2">
-        <v>5.59</v>
+        <f>power_PD!F6</f>
+        <v>3.3235800000000002</v>
       </c>
       <c r="G2">
-        <v>5.718</v>
+        <f>power_PD!G6</f>
+        <v>2.9578700000000002</v>
       </c>
       <c r="H2">
-        <v>4.8140000000000001</v>
+        <f>power_PD!H6</f>
+        <v>2.79928</v>
       </c>
       <c r="I2">
-        <v>4.484</v>
+        <f>power_PD!I6</f>
+        <v>2.56149</v>
       </c>
       <c r="J2">
-        <v>4.4189999999999996</v>
+        <f>power_PD!J6</f>
+        <v>2.4201700000000002</v>
       </c>
       <c r="K2">
-        <v>4.29</v>
+        <f>power_PD!K6</f>
+        <v>2.3612799999999998</v>
       </c>
       <c r="L2">
-        <v>3.92</v>
+        <f>power_PD!L6</f>
+        <v>2.0819299999999998</v>
       </c>
       <c r="M2">
-        <v>4.0449999999999999</v>
+        <f>power_PD!M6</f>
+        <v>2.0526499999999999</v>
       </c>
       <c r="N2">
-        <v>3.911</v>
+        <f>power_PD!N6</f>
+        <v>1.75908</v>
       </c>
       <c r="O2">
-        <v>3.952</v>
+        <f>power_PD!O6</f>
+        <v>1.9837800000000001</v>
       </c>
       <c r="P2">
-        <v>4.0259999999999998</v>
+        <f>power_PD!P6</f>
+        <v>1.98516</v>
       </c>
       <c r="Q2">
-        <v>4.5949999999999998</v>
+        <f>power_PD!Q6</f>
+        <v>2.07159</v>
       </c>
       <c r="R2">
-        <v>4.33</v>
+        <f>power_PD!R6</f>
+        <v>2.2755000000000001</v>
       </c>
       <c r="S2">
-        <v>4.2080000000000002</v>
+        <f>power_PD!S6</f>
+        <v>2.53945</v>
       </c>
       <c r="T2">
-        <v>5.4009999999999998</v>
+        <f>power_PD!T6</f>
+        <v>2.9282300000000001</v>
       </c>
       <c r="U2">
-        <v>5.202</v>
+        <f>power_PD!U6</f>
+        <v>2.8172899999999998</v>
       </c>
       <c r="V2">
-        <v>5.6550000000000002</v>
+        <f>power_PD!V6</f>
+        <v>3.2249300000000001</v>
       </c>
       <c r="W2">
-        <v>6.2690000000000001</v>
+        <f>power_PD!W6</f>
+        <v>3.3118099999999999</v>
       </c>
       <c r="X2">
-        <v>5.5949999999999998</v>
+        <f>power_PD!X6</f>
+        <v>3.4696699999999998</v>
       </c>
       <c r="Y2">
-        <v>5.819</v>
+        <f>power_PD!Y6</f>
+        <v>3.79244</v>
       </c>
     </row>
   </sheetData>
@@ -5800,516 +5915,636 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2">
-        <v>3.45</v>
+        <v>21.94</v>
       </c>
       <c r="C2">
-        <v>3.577</v>
+        <v>20.277999999999999</v>
       </c>
       <c r="D2">
-        <v>3.73</v>
+        <v>23.951000000000001</v>
       </c>
       <c r="E2">
-        <v>3.6230000000000002</v>
+        <v>21.664999999999999</v>
       </c>
       <c r="F2">
-        <v>3.4220000000000002</v>
+        <v>21.303000000000001</v>
       </c>
       <c r="G2">
-        <v>2.968</v>
+        <v>19.669</v>
       </c>
       <c r="H2">
-        <v>2.653</v>
+        <v>17.529</v>
       </c>
       <c r="I2">
-        <v>2.8140000000000001</v>
+        <v>16.303999999999998</v>
       </c>
       <c r="J2">
-        <v>2.5630000000000002</v>
+        <v>15.164</v>
       </c>
       <c r="K2">
-        <v>2.5259999999999998</v>
+        <v>19.148</v>
       </c>
       <c r="L2">
-        <v>2.4329999999999998</v>
+        <v>17.788</v>
       </c>
       <c r="M2">
-        <v>2.2909999999999999</v>
+        <v>18.27</v>
       </c>
       <c r="N2">
-        <v>2.3359999999999999</v>
+        <v>17.129000000000001</v>
       </c>
       <c r="O2">
-        <v>2.302</v>
+        <v>16.341999999999999</v>
       </c>
       <c r="P2">
-        <v>2.4129999999999998</v>
+        <v>18</v>
       </c>
       <c r="Q2">
-        <v>2.383</v>
+        <v>13.276</v>
       </c>
       <c r="R2">
-        <v>2.601</v>
+        <v>15.214</v>
       </c>
       <c r="S2">
-        <v>2.8330000000000002</v>
+        <v>16.86</v>
       </c>
       <c r="T2">
-        <v>3.1230000000000002</v>
+        <v>18.939</v>
       </c>
       <c r="U2">
-        <v>3.1309999999999998</v>
+        <v>20.831</v>
       </c>
       <c r="V2">
-        <v>3.4630000000000001</v>
+        <v>17.478000000000002</v>
       </c>
       <c r="W2">
-        <v>3.4830000000000001</v>
+        <v>18.719000000000001</v>
       </c>
       <c r="X2">
-        <v>3.6280000000000001</v>
+        <v>18.670999999999999</v>
       </c>
       <c r="Y2">
-        <v>3.879</v>
+        <v>21.376999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" t="s">
+        <v>163</v>
+      </c>
+      <c r="T1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1.8</v>
+      </c>
+      <c r="D2">
+        <v>1.8</v>
+      </c>
+      <c r="E2">
+        <v>1.8</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
+      </c>
+      <c r="G2">
+        <v>1.8</v>
+      </c>
+      <c r="H2">
+        <v>1.8</v>
+      </c>
+      <c r="I2">
+        <v>1.8</v>
+      </c>
+      <c r="J2">
+        <v>1.8</v>
+      </c>
+      <c r="K2">
+        <v>1.8</v>
+      </c>
+      <c r="L2">
+        <v>1.8</v>
+      </c>
+      <c r="M2">
+        <v>1.8</v>
+      </c>
+      <c r="N2">
+        <v>1.8</v>
+      </c>
+      <c r="O2">
+        <v>1.8</v>
+      </c>
+      <c r="P2">
+        <v>1.8</v>
+      </c>
+      <c r="Q2">
+        <v>1.8</v>
+      </c>
+      <c r="R2">
+        <v>1.8</v>
+      </c>
+      <c r="S2">
+        <v>1.8</v>
+      </c>
+      <c r="T2">
+        <v>1.8</v>
+      </c>
+      <c r="U2">
+        <v>1.8</v>
+      </c>
+      <c r="V2">
+        <v>1.8</v>
+      </c>
+      <c r="W2">
+        <v>1.8</v>
+      </c>
+      <c r="X2">
+        <v>1.8</v>
+      </c>
+      <c r="Y2">
+        <v>1.8</v>
+      </c>
+      <c r="Z2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1.8</v>
+      </c>
+      <c r="D3">
+        <v>1.8</v>
+      </c>
+      <c r="E3">
+        <v>1.8</v>
+      </c>
+      <c r="F3">
+        <v>1.8</v>
+      </c>
+      <c r="G3">
+        <v>1.8</v>
+      </c>
+      <c r="H3">
+        <v>1.8</v>
+      </c>
+      <c r="I3">
+        <v>1.8</v>
+      </c>
+      <c r="J3">
+        <v>1.8</v>
+      </c>
+      <c r="K3">
+        <v>1.8</v>
+      </c>
+      <c r="L3">
+        <v>1.8</v>
+      </c>
+      <c r="M3">
+        <v>1.8</v>
+      </c>
+      <c r="N3">
+        <v>1.8</v>
+      </c>
+      <c r="O3">
+        <v>1.8</v>
+      </c>
+      <c r="P3">
+        <v>1.8</v>
+      </c>
+      <c r="Q3">
+        <v>1.8</v>
+      </c>
+      <c r="R3">
+        <v>1.8</v>
+      </c>
+      <c r="S3">
+        <v>1.8</v>
+      </c>
+      <c r="T3">
+        <v>1.8</v>
+      </c>
+      <c r="U3">
+        <v>1.8</v>
+      </c>
+      <c r="V3">
+        <v>1.8</v>
+      </c>
+      <c r="W3">
+        <v>1.8</v>
+      </c>
+      <c r="X3">
+        <v>1.8</v>
+      </c>
+      <c r="Y3">
+        <v>1.8</v>
+      </c>
+      <c r="Z3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>eh_flow_gas!B2/10.45</f>
+        <v>2.0995215311004789</v>
+      </c>
+      <c r="D4">
+        <f>eh_flow_gas!C2/10.45</f>
+        <v>1.9404784688995216</v>
+      </c>
+      <c r="E4">
+        <f>eh_flow_gas!D2/10.45</f>
+        <v>2.2919617224880384</v>
+      </c>
+      <c r="F4">
+        <f>eh_flow_gas!E2/10.45</f>
+        <v>2.0732057416267944</v>
+      </c>
+      <c r="G4">
+        <f>eh_flow_gas!F2/10.45</f>
+        <v>2.0385645933014356</v>
+      </c>
+      <c r="H4">
+        <f>eh_flow_gas!G2/10.45</f>
+        <v>1.8822009569377993</v>
+      </c>
+      <c r="I4">
+        <f>eh_flow_gas!H2/10.45</f>
+        <v>1.6774162679425839</v>
+      </c>
+      <c r="J4">
+        <f>eh_flow_gas!I2/10.45</f>
+        <v>1.5601913875598086</v>
+      </c>
+      <c r="K4">
+        <f>eh_flow_gas!J2/10.45</f>
+        <v>1.4511004784688997</v>
+      </c>
+      <c r="L4">
+        <f>eh_flow_gas!K2/10.45</f>
+        <v>1.8323444976076555</v>
+      </c>
+      <c r="M4">
+        <f>eh_flow_gas!L2/10.45</f>
+        <v>1.7022009569377992</v>
+      </c>
+      <c r="N4">
+        <f>eh_flow_gas!M2/10.45</f>
+        <v>1.7483253588516747</v>
+      </c>
+      <c r="O4">
+        <f>eh_flow_gas!N2/10.45</f>
+        <v>1.6391387559808615</v>
+      </c>
+      <c r="P4">
+        <f>eh_flow_gas!O2/10.45</f>
+        <v>1.5638277511961722</v>
+      </c>
+      <c r="Q4">
+        <f>eh_flow_gas!P2/10.45</f>
+        <v>1.7224880382775121</v>
+      </c>
+      <c r="R4">
+        <f>eh_flow_gas!Q2/10.45</f>
+        <v>1.2704306220095694</v>
+      </c>
+      <c r="S4">
+        <f>eh_flow_gas!R2/10.45</f>
+        <v>1.4558851674641149</v>
+      </c>
+      <c r="T4">
+        <f>eh_flow_gas!S2/10.45</f>
+        <v>1.6133971291866029</v>
+      </c>
+      <c r="U4">
+        <f>eh_flow_gas!T2/10.45</f>
+        <v>1.8123444976076557</v>
+      </c>
+      <c r="V4">
+        <f>eh_flow_gas!U2/10.45</f>
+        <v>1.9933971291866031</v>
+      </c>
+      <c r="W4">
+        <f>eh_flow_gas!V2/10.45</f>
+        <v>1.6725358851674643</v>
+      </c>
+      <c r="X4">
+        <f>eh_flow_gas!W2/10.45</f>
+        <v>1.7912918660287083</v>
+      </c>
+      <c r="Y4">
+        <f>eh_flow_gas!X2/10.45</f>
+        <v>1.7866985645933016</v>
+      </c>
+      <c r="Z4">
+        <f>eh_flow_gas!Y2/10.45</f>
+        <v>2.0456459330143542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="J5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="K5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="M5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="S5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="T5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="U5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="V5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="W5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="X5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="Y5">
+        <v>0.82008000000000003</v>
+      </c>
+      <c r="Z5">
+        <v>0.82008000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5.9429999999999996</v>
-      </c>
-      <c r="C2">
-        <v>6.17</v>
-      </c>
-      <c r="D2">
-        <v>5.9359999999999999</v>
-      </c>
-      <c r="E2">
-        <v>5.3639999999999999</v>
-      </c>
-      <c r="F2">
-        <v>5.6360000000000001</v>
-      </c>
-      <c r="G2">
-        <v>5.6980000000000004</v>
-      </c>
-      <c r="H2">
-        <v>4.915</v>
-      </c>
-      <c r="I2">
-        <v>4.601</v>
-      </c>
-      <c r="J2">
-        <v>4.3949999999999996</v>
-      </c>
-      <c r="K2">
-        <v>4.0620000000000003</v>
-      </c>
-      <c r="L2">
-        <v>3.47</v>
-      </c>
-      <c r="M2">
-        <v>3.5779999999999998</v>
-      </c>
-      <c r="N2">
-        <v>3.2679999999999998</v>
-      </c>
-      <c r="O2">
-        <v>3.1429999999999998</v>
-      </c>
-      <c r="P2">
-        <v>3.36</v>
-      </c>
-      <c r="Q2">
-        <v>3.4279999999999999</v>
-      </c>
-      <c r="R2">
-        <v>3.9049999999999998</v>
-      </c>
-      <c r="S2">
-        <v>4.4489999999999998</v>
-      </c>
-      <c r="T2">
-        <v>5.2409999999999997</v>
-      </c>
-      <c r="U2">
-        <v>6.016</v>
-      </c>
-      <c r="V2">
-        <v>5.3879999999999999</v>
-      </c>
-      <c r="W2">
-        <v>6.3840000000000003</v>
-      </c>
-      <c r="X2">
-        <v>6.109</v>
-      </c>
-      <c r="Y2">
-        <v>6.8810000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6.6970000000000001</v>
-      </c>
-      <c r="C3">
-        <v>5.9550000000000001</v>
-      </c>
-      <c r="D3">
-        <v>6.8780000000000001</v>
-      </c>
-      <c r="E3">
-        <v>6.0110000000000001</v>
-      </c>
-      <c r="F3">
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="G3">
-        <v>5.1029999999999998</v>
-      </c>
-      <c r="H3">
-        <v>4.8040000000000003</v>
-      </c>
-      <c r="I3">
-        <v>4.6639999999999997</v>
-      </c>
-      <c r="J3">
-        <v>4.0780000000000003</v>
-      </c>
-      <c r="K3">
-        <v>3.8370000000000002</v>
-      </c>
-      <c r="L3">
-        <v>3.56</v>
-      </c>
-      <c r="M3">
-        <v>3.5720000000000001</v>
-      </c>
-      <c r="N3">
-        <v>3.1829999999999998</v>
-      </c>
-      <c r="O3">
-        <v>3.016</v>
-      </c>
-      <c r="P3">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="Q3">
-        <v>3.6880000000000002</v>
-      </c>
-      <c r="R3">
-        <v>4.4009999999999998</v>
-      </c>
-      <c r="S3">
-        <v>4.6520000000000001</v>
-      </c>
-      <c r="T3">
-        <v>4.9610000000000003</v>
-      </c>
-      <c r="U3">
-        <v>5.5670000000000002</v>
-      </c>
-      <c r="V3">
-        <v>6.5629999999999997</v>
-      </c>
-      <c r="W3">
-        <v>7.0149999999999997</v>
-      </c>
-      <c r="X3">
-        <v>6.5430000000000001</v>
-      </c>
-      <c r="Y3">
-        <v>6.7549999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>7.1859999999999999</v>
-      </c>
-      <c r="C4">
-        <v>6.351</v>
-      </c>
-      <c r="D4">
-        <v>6.6459999999999999</v>
-      </c>
-      <c r="E4">
-        <v>6.2279999999999998</v>
-      </c>
-      <c r="F4">
-        <v>5.9859999999999998</v>
-      </c>
-      <c r="G4">
-        <v>5.18</v>
-      </c>
-      <c r="H4">
-        <v>4.5229999999999997</v>
-      </c>
-      <c r="I4">
-        <v>3.9820000000000002</v>
-      </c>
-      <c r="J4">
-        <v>3.8479999999999999</v>
-      </c>
-      <c r="K4">
-        <v>3.6589999999999998</v>
-      </c>
-      <c r="L4">
-        <v>3.423</v>
-      </c>
-      <c r="M4">
-        <v>3.694</v>
-      </c>
-      <c r="N4">
-        <v>3.4660000000000002</v>
-      </c>
-      <c r="O4">
-        <v>3.1190000000000002</v>
-      </c>
-      <c r="P4">
-        <v>3.5569999999999999</v>
-      </c>
-      <c r="Q4">
-        <v>3.6709999999999998</v>
-      </c>
-      <c r="R4">
-        <v>4.0549999999999997</v>
-      </c>
-      <c r="S4">
-        <v>4.5979999999999999</v>
-      </c>
-      <c r="T4">
-        <v>5.1859999999999999</v>
-      </c>
-      <c r="U4">
-        <v>5.3419999999999996</v>
-      </c>
-      <c r="V4">
-        <v>6.25</v>
-      </c>
-      <c r="W4">
-        <v>5.81</v>
-      </c>
-      <c r="X4">
-        <v>6.5179999999999998</v>
-      </c>
-      <c r="Y4">
-        <v>7.7329999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6322,11 +6557,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -6358,7 +6595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6378,10 +6615,10 @@
         <v>1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>100</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -6390,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6410,10 +6647,10 @@
         <v>1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>100</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -6422,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -6442,10 +6679,10 @@
         <v>1</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>100</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -6461,165 +6698,319 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>175</v>
+      <c r="Y1" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>24.04</v>
+        <v>5.9429999999999996</v>
       </c>
       <c r="C2">
-        <v>23.07</v>
+        <v>6.17</v>
       </c>
       <c r="D2">
-        <v>20.85</v>
+        <v>5.9359999999999999</v>
       </c>
       <c r="E2">
-        <v>19.23</v>
+        <v>5.3639999999999999</v>
       </c>
       <c r="F2">
-        <v>17.170000000000002</v>
+        <v>5.6360000000000001</v>
       </c>
       <c r="G2">
-        <v>15.43</v>
+        <v>5.6980000000000004</v>
       </c>
       <c r="H2">
-        <v>13.74</v>
+        <v>4.915</v>
       </c>
       <c r="I2">
-        <v>13.11</v>
+        <v>4.601</v>
       </c>
       <c r="J2">
-        <v>11.9</v>
+        <v>4.3949999999999996</v>
       </c>
       <c r="K2">
-        <v>12.27</v>
+        <v>4.0620000000000003</v>
       </c>
       <c r="L2">
-        <v>12.67</v>
+        <v>3.47</v>
       </c>
       <c r="M2">
-        <v>13.08</v>
+        <v>3.577999999999999</v>
       </c>
       <c r="N2">
-        <v>13.94</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="O2">
-        <v>15.68</v>
+        <v>3.1429999999999998</v>
       </c>
       <c r="P2">
-        <v>17.059999999999999</v>
+        <v>3.36</v>
       </c>
       <c r="Q2">
-        <v>19.37</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="R2">
-        <v>20.079999999999998</v>
+        <v>3.9049999999999998</v>
       </c>
       <c r="S2">
-        <v>22.37</v>
+        <v>4.4489999999999998</v>
       </c>
       <c r="T2">
-        <v>23.15</v>
+        <v>5.2409999999999997</v>
       </c>
       <c r="U2">
-        <v>24.46</v>
+        <v>6.016</v>
       </c>
       <c r="V2">
-        <v>26.31</v>
+        <v>5.3879999999999999</v>
       </c>
       <c r="W2">
-        <v>26.36</v>
+        <v>6.3840000000000003</v>
       </c>
       <c r="X2">
-        <v>25.47</v>
+        <v>6.109</v>
       </c>
       <c r="Y2">
-        <v>24.46</v>
+        <v>6.8810000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6.6970000000000001</v>
+      </c>
+      <c r="C3">
+        <v>5.9550000000000001</v>
+      </c>
+      <c r="D3">
+        <v>6.8780000000000001</v>
+      </c>
+      <c r="E3">
+        <v>6.0110000000000001</v>
+      </c>
+      <c r="F3">
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="G3">
+        <v>5.1029999999999998</v>
+      </c>
+      <c r="H3">
+        <v>4.8040000000000003</v>
+      </c>
+      <c r="I3">
+        <v>4.6639999999999997</v>
+      </c>
+      <c r="J3">
+        <v>4.0780000000000003</v>
+      </c>
+      <c r="K3">
+        <v>3.8370000000000002</v>
+      </c>
+      <c r="L3">
+        <v>3.56</v>
+      </c>
+      <c r="M3">
+        <v>3.5720000000000001</v>
+      </c>
+      <c r="N3">
+        <v>3.1829999999999998</v>
+      </c>
+      <c r="O3">
+        <v>3.016</v>
+      </c>
+      <c r="P3">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>3.6880000000000002</v>
+      </c>
+      <c r="R3">
+        <v>4.4009999999999998</v>
+      </c>
+      <c r="S3">
+        <v>4.6520000000000001</v>
+      </c>
+      <c r="T3">
+        <v>4.9610000000000003</v>
+      </c>
+      <c r="U3">
+        <v>5.5670000000000002</v>
+      </c>
+      <c r="V3">
+        <v>6.5629999999999997</v>
+      </c>
+      <c r="W3">
+        <v>7.0149999999999997</v>
+      </c>
+      <c r="X3">
+        <v>6.5430000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>6.7549999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7.1859999999999999</v>
+      </c>
+      <c r="C4">
+        <v>6.351</v>
+      </c>
+      <c r="D4">
+        <v>6.6459999999999999</v>
+      </c>
+      <c r="E4">
+        <v>6.2279999999999998</v>
+      </c>
+      <c r="F4">
+        <v>5.9859999999999998</v>
+      </c>
+      <c r="G4">
+        <v>5.18</v>
+      </c>
+      <c r="H4">
+        <v>4.5229999999999997</v>
+      </c>
+      <c r="I4">
+        <v>3.9820000000000002</v>
+      </c>
+      <c r="J4">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="K4">
+        <v>3.6589999999999998</v>
+      </c>
+      <c r="L4">
+        <v>3.423</v>
+      </c>
+      <c r="M4">
+        <v>3.694</v>
+      </c>
+      <c r="N4">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="O4">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="P4">
+        <v>3.5569999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="R4">
+        <v>4.0549999999999997</v>
+      </c>
+      <c r="S4">
+        <v>4.5979999999999999</v>
+      </c>
+      <c r="T4">
+        <v>5.1859999999999999</v>
+      </c>
+      <c r="U4">
+        <v>5.3419999999999996</v>
+      </c>
+      <c r="V4">
+        <v>6.25</v>
+      </c>
+      <c r="W4">
+        <v>5.81</v>
+      </c>
+      <c r="X4">
+        <v>6.5179999999999998</v>
+      </c>
+      <c r="Y4">
+        <v>7.7329999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6629,165 +7020,165 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>24.04</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>23.07</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>20.85</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>19.23</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>15.43</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>13.74</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.11</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.27</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.67</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.08</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.94</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.68</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>19.37</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>22.37</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>23.15</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>24.46</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>26.31</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>26.36</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>25.47</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>24.46</v>
       </c>
     </row>
   </sheetData>
@@ -6797,111 +7188,111 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -6940,22 +7331,22 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6965,165 +7356,165 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="U2">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="V2">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="W2">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="X2">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="Y2">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7133,165 +7524,165 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="M2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="N2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="Q2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="R2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="S2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="T2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="U2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="V2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -7301,165 +7692,165 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>179</v>
-      </c>
       <c r="B2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="E2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="L2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="M2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="N2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="O2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="P2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="Q2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="R2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="S2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="T2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="U2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="V2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="W2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="X2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="Y2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -7469,165 +7860,165 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -7637,165 +8028,515 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>163</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>164</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>165</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>166</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>167</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>179</v>
+      <c r="Z1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2.46</v>
+      </c>
+      <c r="D3">
+        <v>2.46</v>
+      </c>
+      <c r="E3">
+        <v>2.46</v>
+      </c>
+      <c r="F3">
+        <v>2.46</v>
+      </c>
+      <c r="G3">
+        <v>2.46</v>
+      </c>
+      <c r="H3">
+        <v>2.46</v>
+      </c>
+      <c r="I3">
+        <v>2.46</v>
+      </c>
+      <c r="J3">
+        <v>2.46</v>
+      </c>
+      <c r="K3">
+        <v>2.46</v>
+      </c>
+      <c r="L3">
+        <v>2.46</v>
+      </c>
+      <c r="M3">
+        <v>2.46</v>
+      </c>
+      <c r="N3">
+        <v>2.46</v>
+      </c>
+      <c r="O3">
+        <v>2.46</v>
+      </c>
+      <c r="P3">
+        <v>2.46</v>
+      </c>
+      <c r="Q3">
+        <v>2.46</v>
+      </c>
+      <c r="R3">
+        <v>2.46</v>
+      </c>
+      <c r="S3">
+        <v>2.46</v>
+      </c>
+      <c r="T3">
+        <v>2.46</v>
+      </c>
+      <c r="U3">
+        <v>2.46</v>
+      </c>
+      <c r="V3">
+        <v>2.46</v>
+      </c>
+      <c r="W3">
+        <v>2.46</v>
+      </c>
+      <c r="X3">
+        <v>2.46</v>
+      </c>
+      <c r="Y3">
+        <v>2.46</v>
+      </c>
+      <c r="Z3">
+        <v>2.46</v>
       </c>
     </row>
   </sheetData>
@@ -7810,9 +8551,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7853,7 +8594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7894,7 +8635,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7935,7 +8676,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7976,7 +8717,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8017,7 +8758,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8058,7 +8799,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8099,7 +8840,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8140,7 +8881,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8195,9 +8936,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -8235,7 +8976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -8285,24 +9026,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -8319,9 +9060,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -8341,7 +9082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8361,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8378,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8395,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8412,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8429,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8458,9 +9199,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -8483,7 +9224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8506,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8529,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8552,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8575,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8612,9 +9353,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -8631,7 +9372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8645,7 +9386,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
